--- a/biology/Botanique/Louisa_Descamps-Sabouret/Louisa_Descamps-Sabouret.xlsx
+++ b/biology/Botanique/Louisa_Descamps-Sabouret/Louisa_Descamps-Sabouret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louisa Cécile Descamps-Sabouret, née à Paris le 30 avril 1855, où elle est morte le 15 décembre 1929[1], est une peintre, pastelliste et aquarelliste française, spécialiste des fleurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louisa Cécile Descamps-Sabouret, née à Paris le 30 avril 1855, où elle est morte le 15 décembre 1929, est une peintre, pastelliste et aquarelliste française, spécialiste des fleurs.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève de Tony Robert-Fleury, Raphaël Collin et Edmond Renard, Louisa Descamps-Sabouret expose avant la Première Guerre mondiale au Salon des artistes français et à l'Union des femmes peintres et sculpteurs. Elle est célèbre pour ses nombreuses aquarelles publiées dans le Journal des roses et dans la Revue horticole (1891-1901)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de Tony Robert-Fleury, Raphaël Collin et Edmond Renard, Louisa Descamps-Sabouret expose avant la Première Guerre mondiale au Salon des artistes français et à l'Union des femmes peintres et sculpteurs. Elle est célèbre pour ses nombreuses aquarelles publiées dans le Journal des roses et dans la Revue horticole (1891-1901)
 </t>
         </is>
       </c>
